--- a/data/checked/china/shaanxi/shaanxiCaseStatistics_20200217.xlsx
+++ b/data/checked/china/shaanxi/shaanxiCaseStatistics_20200217.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200217\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F35D15-CB27-4D72-A19C-ACC7744BDC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97510FA8-4B34-4360-8EC8-CC1580603E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10313,9 +10313,6 @@
     <t>区县级</t>
   </si>
   <si>
-    <t>http://sxwjw.shaanxi.gov.cn/art/2020/2/18/art_9_68105.html</t>
-  </si>
-  <si>
     <t>陕西省</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10374,6 +10371,10 @@
   </si>
   <si>
     <t>未核查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sxwjw.shaanxi.gov.cn/art/2020/2/18/art_9_68105.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10385,7 +10386,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10452,6 +10453,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10488,10 +10497,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10543,9 +10553,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -10825,8 +10837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11004,7 +11016,7 @@
         <v>3285</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -11028,24 +11040,24 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T2" s="15">
         <v>43879.376388888886</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>3296</v>
+      <c r="V2" s="21" t="s">
+        <v>3315</v>
       </c>
       <c r="W2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB2" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>3315</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AI2" s="15"/>
@@ -11077,22 +11089,22 @@
         <v>117</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T3" s="15">
         <v>43879.376388888886</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA3" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB3" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -11121,22 +11133,22 @@
         <v>13</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T4" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="AA4" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -11162,25 +11174,25 @@
         <v>152</v>
       </c>
       <c r="M5" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T5" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="AA5" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB5" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AC5" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -11212,22 +11224,22 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T6" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="AA6" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB6" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -11256,22 +11268,22 @@
         <v>8</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T7" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="AA7" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AC7" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -11297,25 +11309,25 @@
         <v>181</v>
       </c>
       <c r="M8" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T8" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AA8" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB8" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AC8" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -11347,22 +11359,22 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T9" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="AA9" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB9" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AC9" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC9" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -11391,22 +11403,22 @@
         <v>8</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T10" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="AA10" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB10" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AC10" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -11435,22 +11447,22 @@
         <v>3</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T11" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AA11" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB11" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AC11" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -11479,22 +11491,22 @@
         <v>25</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T12" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="AA12" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB12" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AC12" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -11523,22 +11535,22 @@
         <v>25</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T13" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="AA13" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB13" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB13" s="13" t="s">
+      <c r="AC13" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -11567,22 +11579,22 @@
         <v>7</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T14" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="AA14" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB14" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB14" s="13" t="s">
+      <c r="AC14" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -11605,7 +11617,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="J15" s="13">
         <v>22</v>
@@ -11620,22 +11632,22 @@
         <v>79</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T15" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V15" s="13" t="s">
+        <v>3311</v>
+      </c>
+      <c r="AA15" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AA15" s="13" t="s">
+      <c r="AB15" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB15" s="13" t="s">
+      <c r="AC15" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
   </sheetData>
@@ -11664,8 +11676,11 @@
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{A2E08FC6-FF95-4D25-BEF2-5DC8E8BE7F64}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
